--- a/git-version1.xlsx
+++ b/git-version1.xlsx
@@ -16,6 +16,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">wqdqwdq </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,6 +523,11 @@
         <v>1.11111111111111E+21</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
